--- a/Project/Sprint#2/G7_Sprint Backlog&A-dapt Blueprint_Sprint#2.xlsx
+++ b/Project/Sprint#2/G7_Sprint Backlog&A-dapt Blueprint_Sprint#2.xlsx
@@ -94,7 +94,7 @@
     <t>อานุุภาพ</t>
   </si>
   <si>
-    <t xml:space="preserve">Team velocity = </t>
+    <t>Team velocity = 14</t>
   </si>
   <si>
     <t>รายชื่อสมาชิก</t>
@@ -994,11 +994,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1979569828"/>
-        <c:axId val="1574996232"/>
+        <c:axId val="1521110639"/>
+        <c:axId val="1878944977"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1979569828"/>
+        <c:axId val="1521110639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,10 +1050,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1574996232"/>
+        <c:crossAx val="1878944977"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1574996232"/>
+        <c:axId val="1878944977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1128,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1979569828"/>
+        <c:crossAx val="1521110639"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1200,7 +1200,7 @@
     <xdr:ext cx="1666875" cy="1685925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1228,7 +1228,7 @@
     <xdr:ext cx="1952625" cy="2305050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1256,7 +1256,7 @@
     <xdr:ext cx="1952625" cy="2295525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1284,7 +1284,7 @@
     <xdr:ext cx="1952625" cy="2295525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1312,7 +1312,7 @@
     <xdr:ext cx="1495425" cy="1752600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1340,7 +1340,7 @@
     <xdr:ext cx="1790700" cy="1876425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1368,7 +1368,7 @@
     <xdr:ext cx="1666875" cy="1752600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1396,7 +1396,7 @@
     <xdr:ext cx="1628775" cy="1962150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1424,7 +1424,7 @@
     <xdr:ext cx="1628775" cy="2305050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1452,7 +1452,7 @@
     <xdr:ext cx="1628775" cy="2381250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1480,7 +1480,7 @@
     <xdr:ext cx="1790700" cy="2457450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1823,13 +1823,13 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" s="7">
         <v>1.0</v>
       </c>
       <c r="H3" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" s="7">
         <v>0.0</v>
@@ -1871,13 +1871,13 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="7">
         <v>1.0</v>
       </c>
       <c r="H4" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" s="7">
         <v>0.0</v>
@@ -1919,13 +1919,13 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" s="7">
         <v>1.0</v>
       </c>
       <c r="H5" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" s="7">
         <v>0.0</v>
@@ -2006,24 +2006,24 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="13">
-        <f>SUM(P6:V6)</f>
-        <v>20</v>
+        <f t="shared" ref="O6:U6" si="1">SUM(D3:D11)</f>
+        <v>14</v>
       </c>
       <c r="P6" s="14">
-        <f>SUM(E3:E11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q6" s="14">
-        <f>SUM(F3)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R6" s="14">
-        <f t="shared" ref="R6:U6" si="1">SUM(G3:G11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="1"/>
@@ -2283,9 +2283,6 @@
     </row>
     <row r="12">
       <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
-        <v>20</v>
-      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -2303,7 +2300,6 @@
     </row>
     <row r="13">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -2339,7 +2335,9 @@
     </row>
     <row r="15">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -29541,8 +29539,8 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A3:A11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -35400,8 +35398,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B10"/>
-    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
